--- a/led.xlsx
+++ b/led.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E3EBAB-685F-4696-9B44-E11D8F330E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23887CFB-C555-4915-ABD2-36CF6DA491EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="192" windowWidth="13932" windowHeight="8880" xr2:uid="{CA6DF140-8A0C-4CD4-97BC-0E92C3282B2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40197DD5-0511-408B-949D-7406328AE184}"/>
   </bookViews>
   <sheets>
     <sheet name="led" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>Chip LED, Green, 2.2 V, -40 to 85 degC, 2-Pin SMD, Pb-Free, Tape and Reel</t>
   </si>
   <si>
-    <t>DS?</t>
+    <t>DS1, DS2</t>
   </si>
   <si>
     <t>AVAG-HSMX-C170_V</t>
@@ -78,7 +78,7 @@
     <t/>
   </si>
   <si>
-    <t>R?</t>
+    <t>R1, R2</t>
   </si>
   <si>
     <t>RESC2013X70X40NL20T20</t>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054642AE-9CF3-417D-97DA-D7768F543A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6350B736-0006-40D1-9D35-2BCB6CB39F85}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
